--- a/Data/EC/NIT-8301187046.xlsx
+++ b/Data/EC/NIT-8301187046.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449F72AE-3E4F-48A1-8819-212D1D6692AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4E1749-6CA3-4720-9E98-431BF2CF6AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72C6F257-19B0-43EB-B24C-BAC4131AE72E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78CD29F2-1F24-4B69-A054-1E10760342DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,259 +71,259 @@
     <t>LUZ ADRIANA HEREDIA OSPINA</t>
   </si>
   <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
     <t>45781810</t>
   </si>
   <si>
     <t>YESENIA MARIA LOZANO BUELVAS</t>
   </si>
   <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
     <t>1144143897</t>
   </si>
   <si>
     <t>MAYELY LORENA CASTRILLON GONZALEZ</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -737,7 +737,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342BACA4-EB2C-DC1C-0AF6-A2D7D0902380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A01B26C-A84F-D2F4-7B7A-C93FD94BE8DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C12B85-E897-4121-B8B2-91E9BCE65701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E76BBE-208F-45E2-8A5A-D3BB3B243E1E}">
   <dimension ref="B2:J120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1266,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24640</v>
+        <v>29166</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1289,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1312,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1335,7 +1335,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1358,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1381,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1404,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1427,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1450,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1473,7 +1473,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1496,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1519,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1542,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1565,7 +1565,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1611,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1634,7 +1634,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1657,7 +1657,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1680,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1703,7 +1703,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1726,7 +1726,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1749,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1772,7 +1772,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1795,7 +1795,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1818,7 +1818,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1841,7 +1841,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -2531,7 +2531,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2554,7 +2554,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2577,7 +2577,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2600,7 +2600,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2623,7 +2623,7 @@
         <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2646,7 +2646,7 @@
         <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2669,7 +2669,7 @@
         <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2692,7 +2692,7 @@
         <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2715,7 +2715,7 @@
         <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2738,7 +2738,7 @@
         <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2761,7 +2761,7 @@
         <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2784,7 +2784,7 @@
         <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2807,7 +2807,7 @@
         <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2830,7 +2830,7 @@
         <v>79</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2853,7 +2853,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2876,7 +2876,7 @@
         <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2899,7 +2899,7 @@
         <v>82</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2913,19 +2913,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="F88" s="18">
-        <v>40000</v>
+        <v>24640</v>
       </c>
       <c r="G88" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2936,19 +2936,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="F89" s="18">
-        <v>40000</v>
+        <v>24640</v>
       </c>
       <c r="G89" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2968,7 +2968,7 @@
         <v>85</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2991,7 +2991,7 @@
         <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3005,19 +3005,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>24640</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3028,19 +3028,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E93" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="F93" s="18">
-        <v>42000</v>
+        <v>24640</v>
       </c>
       <c r="G93" s="18">
-        <v>1050000</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3060,7 +3060,7 @@
         <v>89</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3074,19 +3074,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>24640</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3097,19 +3097,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F96" s="18">
-        <v>42000</v>
+        <v>24640</v>
       </c>
       <c r="G96" s="18">
-        <v>1050000</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3120,19 +3120,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>37333</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3143,19 +3143,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F98" s="18">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="G98" s="18">
-        <v>1050000</v>
+        <v>1000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3166,13 +3166,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="F99" s="18">
         <v>40000</v>
@@ -3189,19 +3189,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3212,13 +3212,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="F101" s="18">
         <v>40000</v>
@@ -3235,19 +3235,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="F102" s="18">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="G102" s="18">
-        <v>1050000</v>
+        <v>1000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3258,19 +3258,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3281,13 +3281,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F104" s="18">
         <v>40000</v>
@@ -3304,19 +3304,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="F105" s="18">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="G105" s="18">
-        <v>1050000</v>
+        <v>1000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3327,13 +3327,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
@@ -3350,19 +3350,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>39200</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>1050000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3373,13 +3373,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="F108" s="18">
         <v>42000</v>
@@ -3396,19 +3396,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="F109" s="18">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="G109" s="18">
-        <v>1000000</v>
+        <v>1050000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3419,13 +3419,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F110" s="18">
         <v>42000</v>
@@ -3442,19 +3442,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>42000</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>1050000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3465,19 +3465,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="F112" s="18">
-        <v>29166</v>
+        <v>42000</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>1050000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3488,16 +3488,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="F113" s="18">
-        <v>39200</v>
+        <v>42000</v>
       </c>
       <c r="G113" s="18">
         <v>1050000</v>
@@ -3511,19 +3511,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F114" s="24">
-        <v>37333</v>
+        <v>42000</v>
       </c>
       <c r="G114" s="24">
-        <v>1000000</v>
+        <v>1050000</v>
       </c>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
